--- a/src/i18n/lazyLoading/generators/dictionary.xlsx
+++ b/src/i18n/lazyLoading/generators/dictionary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>id</t>
   </si>
@@ -22,61 +22,40 @@
     <t>en</t>
   </si>
   <si>
-    <t>fr</t>
-  </si>
-  <si>
     <t>ar</t>
   </si>
   <si>
     <t>Home</t>
   </si>
   <si>
-    <t>Accueil</t>
-  </si>
-  <si>
     <t>الرئيسية</t>
   </si>
   <si>
     <t>Dark Mode</t>
   </si>
   <si>
-    <t>Mode sombre</t>
-  </si>
-  <si>
     <t>الوضع المظلم</t>
   </si>
   <si>
     <t>Light Mode</t>
   </si>
   <si>
-    <t>Mode lumière</t>
-  </si>
-  <si>
     <t>وضع الضوء</t>
   </si>
   <si>
     <t>English</t>
   </si>
   <si>
-    <t>Anglais</t>
-  </si>
-  <si>
     <t>الانكليزية</t>
   </si>
   <si>
     <t>French</t>
   </si>
   <si>
-    <t>Francais</t>
-  </si>
-  <si>
     <t>الفرنسية</t>
   </si>
   <si>
     <t>Arabic</t>
-  </si>
-  <si>
-    <t>Arabe</t>
   </si>
   <si>
     <t>العربية</t>
@@ -460,7 +439,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -469,7 +448,6 @@
     <col min="1" max="1" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -482,22 +460,16 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="29.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="29.25">
@@ -505,13 +477,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="29.25">
@@ -519,55 +488,43 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="29.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="29.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+        <v>12</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="29.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
